--- a/myapp/document/01_DB/10_SCRIPT/data/INIT_DATA.xlsx
+++ b/myapp/document/01_DB/10_SCRIPT/data/INIT_DATA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\ison\webAppTemplate\repos\myapp\document\01_DB_Design\10_script\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\ison\webAppTemplate\repos\myapp\document\01_DB\10_SCRIPT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF82049B-D542-4785-B1ED-8A69D400DDCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC07C10D-A496-4852-B14C-3849E30B0221}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0EB5862B-4B83-48FB-84D3-42A45A1AA84B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0EB5862B-4B83-48FB-84D3-42A45A1AA84B}"/>
   </bookViews>
   <sheets>
     <sheet name="sut.properties" sheetId="2" r:id="rId1"/>
@@ -973,10 +973,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>myapp@ezolab.co.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>My User</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1003,6 +999,10 @@
   </si>
   <si>
     <t>D:\documents\ison\webAppTemplate\repos\myapp\document\01_DB_Design\10_script\data</t>
+  </si>
+  <si>
+    <t>myapp@ison-t.com</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1762,7 +1762,7 @@
         <v>133</v>
       </c>
       <c r="K2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M2" t="s">
         <v>183</v>
@@ -1874,7 +1874,7 @@
         <v>178</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>75</v>
@@ -2715,7 +2715,7 @@
   <sheetPr codeName="TemplateTableSheetX"/>
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="13" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J6" activeCellId="2" sqref="B2 B6:I7 J6"/>
       <selection pane="topRight" activeCell="J6" activeCellId="2" sqref="B2 B6:I7 J6"/>
@@ -3013,19 +3013,19 @@
         <v>1</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>209</v>
       </c>
       <c r="F14" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="H14" s="13" t="s">
         <v>214</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>215</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>74</v>
@@ -3051,7 +3051,7 @@
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="D14" r:id="rId1" xr:uid="{57F98CDE-2392-45B7-9E05-F01BA6ACFD1F}"/>
-    <hyperlink ref="F14" r:id="rId2" xr:uid="{F64EB2AF-C181-4950-A55B-8AFD39234D00}"/>
+    <hyperlink ref="F14" r:id="rId2" xr:uid="{AF95EFEC-D18C-44A7-AD47-FD300486F83D}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
@@ -3348,7 +3348,7 @@
   <sheetPr codeName="TemplateTableSheetX2"/>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="13" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J6" activeCellId="2" sqref="B2 B6:I7 J6"/>
       <selection pane="topRight" activeCell="J6" activeCellId="2" sqref="B2 B6:I7 J6"/>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="14" spans="1:11" s="16" customFormat="1" ht="18.75">
       <c r="B14" s="14">
-        <f>ROW() - 13</f>
+        <f t="shared" ref="B14:B30" si="0">ROW() - 13</f>
         <v>1</v>
       </c>
       <c r="C14" s="13">
@@ -3631,7 +3631,7 @@
     </row>
     <row r="15" spans="1:11" s="16" customFormat="1" ht="18.75">
       <c r="B15" s="14">
-        <f>ROW() - 13</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C15" s="13">
@@ -3664,7 +3664,7 @@
     </row>
     <row r="16" spans="1:11" s="16" customFormat="1" ht="18.75">
       <c r="B16" s="14">
-        <f>ROW() - 13</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C16" s="13">
@@ -3697,7 +3697,7 @@
     </row>
     <row r="17" spans="2:12" s="16" customFormat="1" ht="18.75">
       <c r="B17" s="14">
-        <f>ROW() - 13</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C17" s="13">
@@ -3710,7 +3710,7 @@
         <v>140</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>56</v>
@@ -3730,7 +3730,7 @@
     </row>
     <row r="18" spans="2:12" s="16" customFormat="1" ht="18.75">
       <c r="B18" s="14">
-        <f>ROW() - 13</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C18" s="13">
@@ -3763,7 +3763,7 @@
     </row>
     <row r="19" spans="2:12" s="16" customFormat="1" ht="18.75">
       <c r="B19" s="14">
-        <f>ROW() - 13</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C19" s="13">
@@ -3776,7 +3776,7 @@
         <v>145</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>56</v>
@@ -3796,7 +3796,7 @@
     </row>
     <row r="20" spans="2:12" s="16" customFormat="1" ht="18.75">
       <c r="B20" s="14">
-        <f>ROW() - 13</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C20" s="13">
@@ -3809,7 +3809,7 @@
         <v>147</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>56</v>
@@ -3829,7 +3829,7 @@
     </row>
     <row r="21" spans="2:12" s="16" customFormat="1" ht="18.75">
       <c r="B21" s="14">
-        <f>ROW() - 13</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C21" s="13">
@@ -3862,7 +3862,7 @@
     </row>
     <row r="22" spans="2:12" s="16" customFormat="1" ht="18.75">
       <c r="B22" s="14">
-        <f>ROW() - 13</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C22" s="13">
@@ -3875,7 +3875,7 @@
         <v>152</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>56</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="23" spans="2:12" s="16" customFormat="1" ht="18.75">
       <c r="B23" s="14">
-        <f>ROW() - 13</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C23" s="13">
@@ -3928,7 +3928,7 @@
     </row>
     <row r="24" spans="2:12" s="16" customFormat="1" ht="18.75">
       <c r="B24" s="14">
-        <f>ROW() - 13</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C24" s="13">
@@ -3941,7 +3941,7 @@
         <v>156</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>56</v>
@@ -3961,7 +3961,7 @@
     </row>
     <row r="25" spans="2:12" s="16" customFormat="1" ht="18.75">
       <c r="B25" s="14">
-        <f>ROW() - 13</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C25" s="13">
@@ -3994,7 +3994,7 @@
     </row>
     <row r="26" spans="2:12" s="16" customFormat="1" ht="18.75">
       <c r="B26" s="14">
-        <f>ROW() - 13</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C26" s="13">
@@ -4007,7 +4007,7 @@
         <v>160</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>56</v>
@@ -4027,7 +4027,7 @@
     </row>
     <row r="27" spans="2:12" s="16" customFormat="1" ht="18.75">
       <c r="B27" s="14">
-        <f>ROW() - 13</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C27" s="13">
@@ -4060,7 +4060,7 @@
     </row>
     <row r="28" spans="2:12" s="16" customFormat="1" ht="18.75">
       <c r="B28" s="14">
-        <f>ROW() - 13</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C28" s="13">
@@ -4093,7 +4093,7 @@
     </row>
     <row r="29" spans="2:12" s="16" customFormat="1" ht="18.75">
       <c r="B29" s="14">
-        <f>ROW() - 13</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C29" s="13">
@@ -4126,7 +4126,7 @@
     </row>
     <row r="30" spans="2:12" ht="18.75">
       <c r="B30" s="14">
-        <f>ROW() - 13</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C30" s="13">
